--- a/eda/mapa_coropleto/tic_domicilios_g2.xlsx
+++ b/eda/mapa_coropleto/tic_domicilios_g2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Master-Dissertation\eda\mapa_coropleto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C31C74-F000-49F5-B05D-51F423C8B403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BA71A2-A85B-4C03-835E-6D19C836C992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,27 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Documentos pessoais, como RG, CPF, passaporte ou carteira de trabalho</t>
-  </si>
-  <si>
-    <t>Saúde pública, como agendamento de consultas, remédios ou outros serviços do sistema público de saúde</t>
-  </si>
-  <si>
-    <t>Educação pública, como Enem, Prouni, matrículas em escolas ou universidades públicas</t>
-  </si>
-  <si>
-    <t>Direito do trabalhador ou previdência social, como INSS, FGTS, seguro-desemprego, auxílio-doença ou aposentadoria</t>
-  </si>
-  <si>
-    <t>Impostos e taxas governamentais, como declaração de imposto de renda, IPVA ou IPTU</t>
-  </si>
-  <si>
-    <t>Polícia e segurança, como boletim de ocorrência, antecedentes criminais ou denúncias</t>
-  </si>
-  <si>
-    <t>Transporte público ou outros serviços urbanos, como limpeza e conservação de vias, iluminação</t>
-  </si>
-  <si>
     <t>Região</t>
   </si>
   <si>
@@ -64,13 +43,34 @@
   </si>
   <si>
     <t>Centro-Oeste</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -136,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -174,19 +180,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="medium">
@@ -282,64 +275,45 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,191 +594,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H7"/>
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8">
+        <v>37</v>
+      </c>
+      <c r="D2" s="8">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8">
+        <v>33</v>
+      </c>
+      <c r="G2" s="8">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="11">
-        <v>36</v>
-      </c>
-      <c r="C3" s="11">
-        <v>37</v>
-      </c>
-      <c r="D3" s="11">
-        <v>25</v>
-      </c>
-      <c r="E3" s="11">
-        <v>28</v>
-      </c>
-      <c r="F3" s="11">
-        <v>33</v>
-      </c>
-      <c r="G3" s="11">
-        <v>10</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4">
         <v>20</v>
+      </c>
+      <c r="F3" s="4">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5">
-        <v>6</v>
-      </c>
-      <c r="H4" s="6">
-        <v>6</v>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
         <v>32</v>
       </c>
       <c r="D5" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4">
-        <v>13</v>
-      </c>
-      <c r="H5" s="13">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="H5" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
         <v>23</v>
       </c>
-      <c r="F6" s="5">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7">
-        <v>23</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="C6" s="6">
         <v>27</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D6" s="6">
         <v>13</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E6" s="6">
         <v>18</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F6" s="6">
         <v>22</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G6" s="6">
         <v>8</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H6" s="7">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>